--- a/platform/marketPlaces.xlsx
+++ b/platform/marketPlaces.xlsx
@@ -568,7 +568,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>QuantumSoft</t>
+          <t>Digicap</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>quantumsoft.aidtaas.ai</t>
+          <t>digicap.aidtaas.ai</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -684,12 +684,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Error: 500</t>
+          <t>Error: 201</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FashionHub</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>fashionhub.aidtaas.ai</t>
+          <t>amazon.aidtaas.ai</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -805,12 +805,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Error: 500</t>
+          <t>Error: 201</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FinSecure</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>finsecure.aidtaas.ai</t>
+          <t>hp.aidtaas.ai</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
